--- a/data/the happer farmer/the happy farmer.xlsx
+++ b/data/the happer farmer/the happy farmer.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A53DCF-B23E-456E-88C9-BE8A74C9C66C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96104533-96B3-42C3-9954-CA1B9185942B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="3084" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Measure number</t>
   </si>
@@ -62,6 +62,42 @@
   </si>
   <si>
     <t>II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.4, 0.0, 0.0, 0.0, 0.25, 0.0, 0.0, 0.35, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.21, 0.0, 0.0, 0.0, 0.16, 0.16, 0.0, 0.26, 0.0, 0.21, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.15, 0.0, 0.04, 0.0, 0.19, 0.19, 0.0, 0.31, 0.0, 0.0, 0.0, 0.12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.05, 0.0, 0.25, 0.0, 0.0, 0.0, 0.05, 0.35, 0.0, 0.1, 0.0, 0.25]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.06, 0.0, 0.22, 0.0, 0.0, 0.0, 0.06, 0.39, 0.0, 0.11, 0.0, 0.22]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.04, 0.0, 0.25, 0.0, 0.04, 0.21, 0.0, 0.25, 0.0, 0.0, 0.0, 0.21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.1, 0.0, 0.25, 0.0, 0.05, 0.05, 0.05, 0.3, 0.0, 0.05, 0.0, 0.2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.42, 0.0, 0.0, 0.0, 0.25, 0.0, 0.0, 0.33, 0.0, 0.0, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.26, 0.0, 0.0, 0.0, 0.13, 0.17, 0.0, 0.26, 0.0, 0.17, 0.0, 0.0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.25, 0.0, 0.12, 0.0, 0.08, 0.12, 0.0, 0.29, 0.0, 0.04, 0.0, 0.08]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.27, 0.0, 0.14, 0.0, 0.09, 0.14, 0.0, 0.23, 0.0, 0.05, 0.0, 0.09]</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -379,292 +415,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>3</v>
       </c>
     </row>
